--- a/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_传闻.xlsx
+++ b/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_传闻.xlsx
@@ -12,12 +12,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LocData'!$A$1:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="534">
   <si>
     <t>备注</t>
   </si>
@@ -67,7 +80,7 @@
     <t>無名地區</t>
   </si>
   <si>
-    <t>Nameless area</t>
+    <t>Nameless Region</t>
   </si>
   <si>
     <t>tag1_chuanwen1_0</t>
@@ -88,10 +101,10 @@
     <t>无名小村村长家中卧房里有一&lt;color=#c44b0e&gt;大陶缸&lt;/color&gt;，下面暗藏密室，据说里面的蟠龙宝箱存放着村长多年守护之物。</t>
   </si>
   <si>
-    <t>無名小村村長家中臥房裡有一&lt;color=#c44b0e&gt;大陶缸&lt;/color&gt;，下面暗藏密室，據說裡面的蟠龍寶箱存放著村長多年守護之物。</t>
-  </si>
-  <si>
-    <t>In the bedroom of the Nameless villageVillage leader's house, there is a &lt;color=#c44b0e&gt;large pottery jar&lt;/color&gt; with a secret chamber underneath. It is said that the coiled dragon chest inside holds the treasure that the Village Head has been guarding for many years.</t>
+    <t>無名小村村長家中臥房裏有一&lt;color=#c44b0e&gt;大陶缸&lt;/color&gt;，下面暗藏密室，據說裏面的蟠龍寶箱存放著村長多年守護之物。</t>
+  </si>
+  <si>
+    <t>In the bedroom of the Nameless villageVillage head's house, there is a &lt;color=#c44b0e&gt;large pottery jar&lt;/color&gt; with a secret chamber underneath. It is said that the coiled dragon chest inside holds the treasure that the Village Head has been guarding for many years.</t>
   </si>
   <si>
     <t>tag1_chuanwen2_0</t>
@@ -151,7 +164,7 @@
     <t>楊么兒告知，&lt;color=#c44b0e&gt;梨花槍法秘籍&lt;/color&gt;藏匿在一處破廟的地洞內。</t>
   </si>
   <si>
-    <t>Yang Yao Er informed that the &lt;color=#c44b0e&gt;Pear Blossom Spear Manual&lt;/color&gt; is hidden in a cave in a Ruined shrine.</t>
+    <t>Yang Yao Er informed that the &lt;color=#c44b0e&gt;Pear Blossom Spear Manual&lt;/color&gt; is hidden in a secret chamber beneath a dilapidated temple.</t>
   </si>
   <si>
     <t>tag1_chuanwen4_0</t>
@@ -196,7 +209,7 @@
     <t>在迷踪林里的一颗粉红树叶的大树下，生长一颗大灵芝。</t>
   </si>
   <si>
-    <t>在迷蹤林裡的一顆粉紅樹葉的大樹下，生長一顆大靈芝。</t>
+    <t>在迷蹤林裏的一顆粉紅樹葉的大樹下，生長一顆大靈芝。</t>
   </si>
   <si>
     <t>Under a pink-leafed tree in the Lost Forest, a large Lingzhi grows.</t>
@@ -235,7 +248,7 @@
     <t>破廟</t>
   </si>
   <si>
-    <t>Ruined shrine</t>
+    <t>Dilapidated Temple</t>
   </si>
   <si>
     <t>tag1_chuanwen7_1</t>
@@ -247,7 +260,7 @@
     <t>據說村外破廟的牆在晚上會顯示文字。</t>
   </si>
   <si>
-    <t>It is said that the wall of the Ruined shrine outside the village will display text at night.</t>
+    <t>Rumor has it that the wall of the dilapidated temple outside the village reveals text at night.</t>
   </si>
   <si>
     <t>tag1_chuanwen8_0</t>
@@ -268,7 +281,7 @@
     <t>听说猎户·刘十八是从万兽山庄弟子那里学到的兽语本事，以后多留意万兽山庄的消息，说不定也有机会学到兽语。</t>
   </si>
   <si>
-    <t>聽說獵戶·劉十八是從萬獸山莊弟子那裡學到的獸語本事，以後多留意萬獸山莊的訊息，說不定也有機會學到獸語。</t>
+    <t>聽說獵戶·劉十八是從萬獸山莊弟子那裏學到的獸語本事，以後多留意萬獸山莊的訊息，說不定也有機會學到獸語。</t>
   </si>
   <si>
     <t>It is said that Hunter Liu Shiba learned the ability to speak to animals from the disciples of the Beast Mountain Villa. Pay more attention to the news of the Beast Mountain Villa in the future, and you may have the opportunity to learn the animal language.</t>
@@ -328,7 +341,7 @@
     <t>鎮西關</t>
   </si>
   <si>
-    <t>West Pass</t>
+    <t>West Border Patrol</t>
   </si>
   <si>
     <t>tag1_chuanwen11_1</t>
@@ -340,7 +353,55 @@
     <t>想要順利透過鎮西關，需要得到康王手諭和齊王手諭。</t>
   </si>
   <si>
-    <t>To pass through West Pass smoothly, you need to get the hand orders from Kang Wang and Qi Wang.</t>
+    <t>In order to pass through the West Border Patrol, you need to get the written orders of Duke Kang and Duke Qi.</t>
+  </si>
+  <si>
+    <t>tag1_chuanwen12_0</t>
+  </si>
+  <si>
+    <t>顶峰论道</t>
+  </si>
+  <si>
+    <t>頂峰論道</t>
+  </si>
+  <si>
+    <t>Peak Debate</t>
+  </si>
+  <si>
+    <t>tag1_chuanwen12_1</t>
+  </si>
+  <si>
+    <t>要参加顶峰论道这样的武林盛会，名声至少要达到&lt;color=#c44b0e&gt;举世闻名&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>要參加頂峰論道這樣的武林盛會，名聲至少要達到&lt;color=#c44b0e&gt;舉世聞名&lt;/color&gt;。</t>
+  </si>
+  <si>
+    <t>To participate in a martial arts event like the Peak Debate, your Fame must reach at least &lt;color=#c44b0e&gt;Revered&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>tag1_chuanwen13_0</t>
+  </si>
+  <si>
+    <t>上品农具</t>
+  </si>
+  <si>
+    <t>上品農具</t>
+  </si>
+  <si>
+    <t>High-quality farming tools</t>
+  </si>
+  <si>
+    <t>tag1_chuanwen13_1</t>
+  </si>
+  <si>
+    <t>采集能力达到&lt;color=#c44b0e&gt;炉火纯青&lt;/color&gt;可在无名小村的货郎处购买到上品农具。</t>
+  </si>
+  <si>
+    <t>採集能力達到&lt;color=#c44b0e&gt;爐火純青&lt;/color&gt;可在無名小村的貨郎處購買到上品農具。</t>
+  </si>
+  <si>
+    <t>Once your gathering skill reaches &lt;color=#c44b0e&gt;Expert&lt;/color&gt;, you can buy high-quality farming tools from the Peddler in Nameless village.</t>
   </si>
   <si>
     <t>tag2</t>
@@ -409,7 +470,7 @@
     <t>聽聞釋法寺的佛印禪師在&lt;color=#c44b0e&gt;雲林寺&lt;/color&gt;內普法，而那道玄宗的邋遢張也許會出現在&lt;color=#c44b0e&gt;太白樓&lt;/color&gt;附近。</t>
   </si>
   <si>
-    <t>It is said that the Buddhist monk of Shifa Temple is preaching in the &lt;color=#c44b0e&gt;Cloud Forest Temple&lt;/color&gt;, and that Taoist Sect's La Tazhang may appear near the &lt;color=#c44b0e&gt;Wine God Tower&lt;/color&gt;.</t>
+    <t>It is said that the Buddhist monk of Shifa Temple is preaching in the &lt;color=#c44b0e&gt;Yunlin Temple&lt;/color&gt;, and that the Taoist Sect's Zhang Lata may appear near the &lt;color=#c44b0e&gt;Wine God Tower&lt;/color&gt;.</t>
   </si>
   <si>
     <t>tag2_chuanwen3_0</t>
@@ -466,7 +527,7 @@
     <t>霖安城里有个地下擂台，里面偶尔会放出猛兽与人争斗，十分热闹刺激。</t>
   </si>
   <si>
-    <t>霖安城裡有個地下擂臺，裡面偶爾會放出猛獸與人爭鬥，十分熱鬧刺激。</t>
+    <t>霖安城裏有個地下擂臺，裏面偶爾會放出猛獸與人爭鬥，十分熱鬧刺激。</t>
   </si>
   <si>
     <t>There is an underground Arena in Lin'an City, where beasts are occasionally released to fight with people, which is very exciting.</t>
@@ -529,7 +590,7 @@
     <t>開化塔</t>
   </si>
   <si>
-    <t>Enlighten Tower</t>
+    <t>Enlightment Tower</t>
   </si>
   <si>
     <t>tag2_chuanwen5_1</t>
@@ -541,7 +602,7 @@
     <t>霖安城開化塔在舉辦登塔奪寶的擂臺，獲勝者可獲得價值連城的寶貝，以及加入皇城司效力的機會。</t>
   </si>
   <si>
-    <t>The Lin'an CityEnlighten Tower is hosting an Arena treasure hunt, where the winner can obtain a priceless treasure and the opportunity to serve in the Imperial City.</t>
+    <t>The Lin'an CityEnlightment Tower is hosting an Arena treasure hunt, where the winner can obtain a priceless treasure and the opportunity to serve in the Imperial City.</t>
   </si>
   <si>
     <t>tag2_chuanwen6_0</t>
@@ -718,7 +779,7 @@
     <t>康王已派兵趕往楚襄城增援！</t>
   </si>
   <si>
-    <t>Kang Wang has sent troops to reinforce Chuxiang City!</t>
+    <t>Duke Kang has sent troops to reinforce Chuxiang City!</t>
   </si>
   <si>
     <t>tag4_chuanwen2_6</t>
@@ -841,7 +902,7 @@
     <t>楚襄丁家</t>
   </si>
   <si>
-    <t>Chuxiang Ding family's house</t>
+    <t>Chuxiang Ding family's mansion</t>
   </si>
   <si>
     <t>tag4_chuanwen7_1</t>
@@ -880,7 +941,7 @@
     <t>大梁城里有人设下&lt;color=#c44b0e&gt;天下第一擂&lt;/color&gt;，各方英雄摩拳擦掌，准备在擂台上技惊四座，一鸣惊人。</t>
   </si>
   <si>
-    <t>大梁城裡有人設下&lt;color=#c44b0e&gt;天下第一擂&lt;/color&gt;，各方英雄摩拳擦掌，準備在擂臺上技驚四座，一鳴驚人。</t>
+    <t>大梁城裏有人設下&lt;color=#c44b0e&gt;天下第一擂&lt;/color&gt;，各方英雄摩拳擦掌，準備在擂臺上技驚四座，一鳴驚人。</t>
   </si>
   <si>
     <t>Someone in Daliang City has set up the &lt;color=#c44b0e&gt;World's Number One Challenge&lt;/color&gt;, and heroes from all sides are ready to show their skills in the Arena and make a name for themselves.</t>
@@ -952,7 +1013,7 @@
     <t>夜摩坊</t>
   </si>
   <si>
-    <t>Night Demon Square</t>
+    <t>Night Auction Market</t>
   </si>
   <si>
     <t>tag6_chuanwen1_1</t>
@@ -964,7 +1025,7 @@
     <t>夜摩坊每日子時舉辦拍賣會，拍品以各種材料為主。</t>
   </si>
   <si>
-    <t>Night Demon Square holds an auction at Zi Shi every day, with various materials as the main auction items.</t>
+    <t>Night Auction Market holds an auction at Zi Shi every day, with various materials as the main auction items.</t>
   </si>
   <si>
     <t>tag6_chuanwen2_0</t>
@@ -1027,13 +1088,13 @@
     <t>tag6_chuanwen4_1</t>
   </si>
   <si>
-    <t>要成为武林盟主，名声要达到&lt;color=#097a76&gt;声名赫赫&lt;/color&gt;，并且臣服释法寺、道玄宗、儒圣馆、琅琊剑阁、九江水寨、神捕门六大门派，最后通过六大派掌门的挑战。</t>
-  </si>
-  <si>
-    <t>要成為武林盟主，名聲要達到&lt;color=#097a76&gt;聲名赫赫&lt;/color&gt;，並且臣服釋法寺、道玄宗、儒聖館、琅琊劍閣、九江水寨、神捕門六大門派，最後透過六大派掌門的挑戰。</t>
-  </si>
-  <si>
-    <t>To become a Jianghu Master, your Fame needs to reach &lt;color=#097a76&gt;Prominence&lt;/color&gt;, and you need to submit to the six major factions: Shifa Temple, Taoist Sect, Confucius Temple, Langya Sword Pavilion, Jiujiang Water Camp, Crime Investigation Bureau, and finally pass the challenge of the six faction leaders.</t>
+    <t>要成为武林盟主，名声要达到&lt;color=#097a76&gt;声名赫赫&lt;/color&gt;，并且降服释法寺、道玄宗、儒圣馆、琅琊剑阁、九江水寨、神捕门六大门派，最后通过六大派掌门的挑战。</t>
+  </si>
+  <si>
+    <t>要成為武林盟主，名聲要達到&lt;color=#097a76&gt;聲名赫赫&lt;/color&gt;，並且降服釋法寺、道玄宗、儒聖館、琅琊劍閣、九江水寨、神捕門六大門派，最後透過六大派掌門的挑戰。</t>
+  </si>
+  <si>
+    <t>To become a Jianghu Master, your fame must reach &lt;color=#097a76&gt;Prominence&lt;/color&gt;, and you must subdue the six major sects: Shifa Temple, Taoist Sect, Confucius Temple, Langya Sword Pavilion, Jiujiang Fotress, Crime Investigation Bureau. Finally, you must pass the challenge of the six sect leaders.</t>
   </si>
   <si>
     <t>tag6_chuanwen5_0</t>
@@ -1054,7 +1115,7 @@
     <t>要成為武林霸主，須得把釋法寺、道玄宗、儒聖館、琅琊劍閣、九江水寨、神捕門六大門派進行&lt;color=#c44b0e&gt;剿滅&lt;/color&gt;，名聲達到&lt;color=#c44b0e&gt;聲名赫赫&lt;/color&gt;時召集江湖殘餘勢力，對其施展武力進行屈服。</t>
   </si>
   <si>
-    <t>To become a Jianghu Conqueror, you must &lt;color=#c44b0e&gt;eliminate&lt;/color&gt; the six major sects: Shifa Temple, Taoist Sect, Confucius Temple, Langya Sword Pavilion, Jiujiang Water Camp, and Crime Investigation Bureau. When your Fame reaches &lt;color=#c44b0e&gt;Prominence&lt;/color&gt;, gather the remaining forces of Jianghu and subdue them with martial force.</t>
+    <t>To become a Jianghu Conqueror, you must &lt;color=#c44b0e&gt;eliminate&lt;/color&gt; the six major sects: Shifa Temple, Taoist Sect, Confucius Temple, Langya Sword Pavilion, Jiujiang Fotress, and Crime Investigation Bureau. When your Fame reaches &lt;color=#c44b0e&gt;Prominence&lt;/color&gt;, gather the remaining forces of Jianghu and subdue them with martial force.</t>
   </si>
   <si>
     <t>tag6_chuanwen6_0</t>
@@ -1075,7 +1136,7 @@
     <t>霖安城云林寺里石塔下的冰牢中关押着绝世大魔头！</t>
   </si>
   <si>
-    <t>霖安城雲林寺裡石塔下的冰牢中關押著絕世大魔頭！</t>
+    <t>霖安城雲林寺裏石塔下的冰牢中關押著絕世大魔頭！</t>
   </si>
   <si>
     <t>The unparalleled Big Devil is imprisoned in the Ice Prison under the stone tower in Lin'an CityCloud Forest Temple!</t>
@@ -1120,13 +1181,13 @@
     <t>tag6_chuanwen8_1</t>
   </si>
   <si>
-    <t>获得传闻——摸金门门主命不凡知道不少生财之道，想要发财可以找他打听。</t>
-  </si>
-  <si>
-    <t>獲得傳聞——摸金門門主命不凡知道不少生財之道，想要發財可以找他打聽。</t>
-  </si>
-  <si>
-    <t>Get the rumor - The leader of Tomb Raider Sect, Ming Bufan, knows many ways to make money. If you want to get rich, you can ask him for advice.</t>
+    <t>摸金门门主命不凡知道不少生财之道，想要发财可以找他打听。</t>
+  </si>
+  <si>
+    <t>摸金門門主命不凡知道不少生財之道，想要發財可以找他打聽。</t>
+  </si>
+  <si>
+    <t>Ming Bufan, the head of the Tomb Raider Sect, knows many ways to make money, you can ask him if you want to get rich.</t>
   </si>
   <si>
     <t>tag6_chuanwen9_0</t>
@@ -1171,7 +1232,7 @@
     <t>海蛟幫、大王寨在無名地區，青風寨在襄樊地區。</t>
   </si>
   <si>
-    <t>The Sea Jiao Gang and Bandit Camp are in the Nameless area, and the Blue Wind Camp is in Xiangfan.</t>
+    <t>The Sea Jiao Gang and Bandit Chief Stronghold are in the Nameless Region, and the Blue Wind Camp is in Xiangfan Region.</t>
   </si>
   <si>
     <t>tag6_chuanwen11_0</t>
@@ -1219,7 +1280,79 @@
     <t>楚襄城的髒街、大梁城的珠光寶氣樓、中州地區的夜摩坊都在不定期舉辦拍賣會。其中髒街拍賣暗器、毒藥，珠光寶氣樓拍賣高品質禮物，夜摩坊拍賣稀缺材料。</t>
   </si>
   <si>
-    <t>Chuxiang City's Dirty Street, Daliang City's Glittering Artifact House, and Zhongzhou's Night Demon Square all hold auctions irregularly. Among them, Dirty Street auctions Throwing, Poison, Glittering Artifact House auctions high-quality gifts, and Night Demon Square auctions scarce Material.</t>
+    <t>Chuxiang City's Dirty Street, Daliang City's Glittering Artifact Auction, and Zhongzhou's Night Auction Market all hold auctions irregularly. Among them, Dirty Street auctions Throwing, Poison, Glittering Artifact Auction auctions high-quality gifts, and Night Auction Market auctions scarce Material.</t>
+  </si>
+  <si>
+    <t>tag6_chuanwen13_0</t>
+  </si>
+  <si>
+    <t>五色宝珠</t>
+  </si>
+  <si>
+    <t>五色寶珠</t>
+  </si>
+  <si>
+    <t>Five-Colored Orbs</t>
+  </si>
+  <si>
+    <t>tag6_chuanwen13_1</t>
+  </si>
+  <si>
+    <t>收集齐五色宝珠，可在西南地区神女庙继承神女的遗产。</t>
+  </si>
+  <si>
+    <t>收集齊五色寶珠，可在西南地區神女廟繼承神女的遺產。</t>
+  </si>
+  <si>
+    <t>Collect all five colored orbs to inherit the legacy of the Goddess at the temple in the Southwest region.</t>
+  </si>
+  <si>
+    <t>tag6_chuanwen13_2</t>
+  </si>
+  <si>
+    <t>紫色宝珠藏在吴越地区琼花谷湖中心亭子后的宝箱里。</t>
+  </si>
+  <si>
+    <t>紫色寶珠藏在吳越地區瓊花谷湖中心亭子後的寶箱裏。</t>
+  </si>
+  <si>
+    <t>The purple orb is hidden in the chest behind the pavilion in the center of the lake in Wuyue RegionSnowflower Valley.</t>
+  </si>
+  <si>
+    <t>tag6_chuanwen13_3</t>
+  </si>
+  <si>
+    <t>绿色宝珠会出现在当世医术最高明的地方。</t>
+  </si>
+  <si>
+    <t>綠色寶珠會出現在當世醫術最高明的地方。</t>
+  </si>
+  <si>
+    <t>The green orb will appear in the place with the most advanced medical knowledge in the world.</t>
+  </si>
+  <si>
+    <t>tag6_chuanwen13_4</t>
+  </si>
+  <si>
+    <t>蓝色宝珠会出现在美女如云的地方。</t>
+  </si>
+  <si>
+    <t>藍色寶珠會出現在美女如雲的地方。</t>
+  </si>
+  <si>
+    <t>The blue orb will appear in a place full of beautiful women.</t>
+  </si>
+  <si>
+    <t>tag6_chuanwen13_5</t>
+  </si>
+  <si>
+    <t>红色宝珠会出现在拥有天生神力之人的地方。</t>
+  </si>
+  <si>
+    <t>紅色寶珠會出現在擁有天生神力之人的地方。</t>
+  </si>
+  <si>
+    <t>The red orb will appear in the place where people with Herculean strength reside.</t>
   </si>
   <si>
     <t>tag7</t>
@@ -1339,25 +1472,163 @@
     <t>tag10_chuanwen1_0</t>
   </si>
   <si>
-    <t>毒龙胆</t>
-  </si>
-  <si>
-    <t>毒龍膽</t>
-  </si>
-  <si>
-    <t>Dragon's Gallbladder</t>
+    <t>毒龙蛋</t>
+  </si>
+  <si>
+    <t>毒龍蛋</t>
+  </si>
+  <si>
+    <t>Poison Dragon Egg</t>
   </si>
   <si>
     <t>tag10_chuanwen1_1</t>
   </si>
   <si>
-    <t>普通毒龙通过喂食毒物可发生变异，进化为异变毒龙，其身上的毒龙胆是治疗特殊病症的重要药材。</t>
-  </si>
-  <si>
-    <t>普通毒龍透過餵食毒物可發生變異，進化為異變毒龍，其身上的毒龍膽是治療特殊病症的重要藥材。</t>
-  </si>
-  <si>
-    <t>Ordinary Poison Dragons can mutate into Mutant Poison Dragons through FeedToxic, and the Poison Dragon Gallbladder on their bodies is an important herb for healing special diseases.</t>
+    <t>普通毒龙通过喂食毒物可发生变异，进化为异变毒龙，其诞下的毒龙蛋是治疗特殊病症的重要药材。</t>
+  </si>
+  <si>
+    <t>普通毒龍透過餵食毒物可發生變異，進化為異變毒龍，其誕下的毒龍蛋是治療特殊病症的重要藥材。</t>
+  </si>
+  <si>
+    <t>A regular Poison Dragon can mutate through FeedToxic, evolving into a Mutant Poison Dragon. The Poison Dragon Egg it lays is an important Herb for healing special diseases.</t>
+  </si>
+  <si>
+    <t>tag10_chuanwen2_0</t>
+  </si>
+  <si>
+    <t>白灵山神鹰</t>
+  </si>
+  <si>
+    <t>白靈山神鷹</t>
+  </si>
+  <si>
+    <t>Bailing Mountain Divine Hawk</t>
+  </si>
+  <si>
+    <t>tag10_chuanwen2_1</t>
+  </si>
+  <si>
+    <t>西南地区的白灵山上似乎有神鹰出没。</t>
+  </si>
+  <si>
+    <t>西南地區的白靈山上似乎有神鷹出沒。</t>
+  </si>
+  <si>
+    <t>There seems to be a Divine Hawk appearing on Bailing Mountain in the Southwest region.</t>
+  </si>
+  <si>
+    <t>tag11</t>
+  </si>
+  <si>
+    <t>虎威镖局</t>
+  </si>
+  <si>
+    <t>虎威鏢局</t>
+  </si>
+  <si>
+    <t>Tiger Escort</t>
+  </si>
+  <si>
+    <t>tag11_chuanwen1_0</t>
+  </si>
+  <si>
+    <t>总镖头下落</t>
+  </si>
+  <si>
+    <t>總鏢頭下落</t>
+  </si>
+  <si>
+    <t>Elite Escort's whereabouts</t>
+  </si>
+  <si>
+    <t>tag11_chuanwen1_1</t>
+  </si>
+  <si>
+    <t>韩总镖头当年受朝廷所托，护送圣上前往燕国，看来韩总镖头的下落只有宣和皇帝知道了。</t>
+  </si>
+  <si>
+    <t>韓總鏢頭當年受朝廷所託，護送聖上前往燕國，看來韓總鏢頭的下落只有宣和皇帝知道了。</t>
+  </si>
+  <si>
+    <t>Elite Escort Han was entrusted by the court to escort the emperor to Yan Kingdom. It seems that only Xuan He Emperor knows the whereabouts of Elite Escort Han.</t>
+  </si>
+  <si>
+    <t>tag11_chuanwen1_2</t>
+  </si>
+  <si>
+    <t>韩总镖头为护宣和皇帝周全，被燕国大军&lt;color=#c44b0e&gt;萧元霸&lt;/color&gt;击杀。</t>
+  </si>
+  <si>
+    <t>韓總鏢頭為護宣和皇帝周全，被燕國大軍&lt;color=#c44b0e&gt;蕭元霸&lt;/color&gt;擊殺。</t>
+  </si>
+  <si>
+    <t>Elite Escort Han was killed by the Yan Kingdom's army &lt;color=#c44b0e&gt;Xiao Yuanba&lt;/color&gt; in order to protect Xuan He Emperor.</t>
+  </si>
+  <si>
+    <t>tag12</t>
+  </si>
+  <si>
+    <t>凌式兄妹</t>
+  </si>
+  <si>
+    <t>Ling Siblings</t>
+  </si>
+  <si>
+    <t>tag12_chuanwen1_0</t>
+  </si>
+  <si>
+    <t>治病药引</t>
+  </si>
+  <si>
+    <t>治病藥引</t>
+  </si>
+  <si>
+    <t>Medicine Guide</t>
+  </si>
+  <si>
+    <t>tag12_chuanwen1_1</t>
+  </si>
+  <si>
+    <t>凌梦蝶的怪病需要&lt;color=#c44b0e&gt;龙虱&lt;/color&gt;作为药引才能治疗。</t>
+  </si>
+  <si>
+    <t>凌夢蝶的怪病需要&lt;color=#c44b0e&gt;龍蝨&lt;/color&gt;作為藥引才能治療。</t>
+  </si>
+  <si>
+    <t>Ling Mengdie's strange disease requires &lt;color=#c44b0e&gt;Dragon lice&lt;/color&gt; as a medicine guide to heal.</t>
+  </si>
+  <si>
+    <t>tag13</t>
+  </si>
+  <si>
+    <t>九江水寨</t>
+  </si>
+  <si>
+    <t>Jiujiang Fotress</t>
+  </si>
+  <si>
+    <t>tag13_chuanwen1_0</t>
+  </si>
+  <si>
+    <t>调查军师</t>
+  </si>
+  <si>
+    <t>調查軍師</t>
+  </si>
+  <si>
+    <t>Investigate the military advisor</t>
+  </si>
+  <si>
+    <t>tag13_chuanwen1_1</t>
+  </si>
+  <si>
+    <t>定海棠正在调查水寨的军师诸葛神机，若是获得诸葛神机的线索就告诉定海棠吧。</t>
+  </si>
+  <si>
+    <t>定海棠正在調查水寨的軍師諸葛神機，若是獲得諸葛神機的線索就告訴定海棠吧。</t>
+  </si>
+  <si>
+    <t>Ding Haitang is investigating the military advisor of the water village, Zhuge Shenji. If you get any clues about Zhuge Shenji, please tell Ding Haitang.</t>
   </si>
   <si>
     <t>end</t>
@@ -1366,7 +1637,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2147,7 +2418,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -2159,11 +2429,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2492,2189 +2766,2579 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1" style="53"/>
-    <col min="2" max="2" width="22.25" customWidth="1" style="53"/>
-    <col min="3" max="3" width="34.75" customWidth="1" style="53"/>
-    <col min="4" max="4" width="65.375" customWidth="1" style="53"/>
-    <col min="5" max="5" width="43.125" customWidth="1" style="53"/>
-    <col min="7" max="7" width="18.375" customWidth="1" style="53"/>
-    <col min="8" max="8" width="15.75" customWidth="1" style="53"/>
-    <col min="9" max="9" width="17.375" customWidth="1" style="53"/>
-    <col min="10" max="10" width="15.125" customWidth="1" style="53"/>
-    <col min="11" max="11" width="14.75" customWidth="1" style="53"/>
-    <col min="12" max="12" width="14.375" customWidth="1" style="53"/>
-    <col min="13" max="13" width="19.25" customWidth="1" style="53"/>
-    <col min="14" max="14" width="17.875" customWidth="1" style="53"/>
-    <col min="15" max="16384" width="9" customWidth="1" style="53"/>
+    <col min="1" max="1" width="9" customWidth="1" style="52"/>
+    <col min="2" max="2" width="22.25" customWidth="1" style="52"/>
+    <col min="3" max="3" width="34.75" customWidth="1" style="52"/>
+    <col min="4" max="4" width="65.375" customWidth="1" style="52"/>
+    <col min="5" max="5" width="43.125" customWidth="1" style="52"/>
+    <col min="6" max="6" width="48.5" customWidth="1" style="49"/>
+    <col min="7" max="7" width="18.375" customWidth="1" style="52"/>
+    <col min="8" max="8" width="15.75" customWidth="1" style="52"/>
+    <col min="9" max="9" width="17.375" customWidth="1" style="52"/>
+    <col min="10" max="10" width="15.125" customWidth="1" style="52"/>
+    <col min="11" max="11" width="14.75" customWidth="1" style="52"/>
+    <col min="12" max="12" width="14.375" customWidth="1" style="52"/>
+    <col min="13" max="13" width="19.25" customWidth="1" style="52"/>
+    <col min="14" max="14" width="17.875" customWidth="1" style="52"/>
+    <col min="15" max="16384" width="9" customWidth="1" style="52"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="51" customFormat="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54" t="s">
+    <row r="2" s="50" customFormat="1">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="51" customFormat="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54" t="s">
+    <row r="3" s="50" customFormat="1">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="52" customFormat="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56">
+    <row r="4" s="51" customFormat="1">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55">
         <v>280010000</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" s="52" customFormat="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56">
+    <row r="5" s="51" customFormat="1">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55">
         <v>280010001</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" s="52" customFormat="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56">
+    <row r="6" s="51" customFormat="1">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55">
         <v>280010002</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="51" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="56">
+      <c r="B7" s="55">
         <v>280010003</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="49" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="56">
+      <c r="B8" s="55">
         <v>280010004</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="49" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="56">
+      <c r="B9" s="55">
         <v>280010005</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="49" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="56">
+      <c r="B10" s="55">
         <v>280010006</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="49" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="56">
+      <c r="B11" s="55">
         <v>280010007</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="49" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="56">
+      <c r="B12" s="55">
         <v>280010008</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="56">
+      <c r="B13" s="55">
         <v>280010009</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="56">
+      <c r="B14" s="55">
         <v>280010010</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="49" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="56">
+      <c r="B15" s="55">
         <v>280010011</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="56">
+      <c r="B16" s="55">
         <v>280010012</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="56">
+      <c r="B17" s="55">
         <v>280010013</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="56">
+      <c r="B18" s="55">
         <v>280010014</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="49" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="56">
+      <c r="B19" s="55">
         <v>280010015</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="49" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="56">
+      <c r="B20" s="55">
         <v>280010016</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="49" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="56">
+      <c r="B21" s="55">
         <v>280010017</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="49" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="56">
+      <c r="B22" s="55">
         <v>280010018</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="49" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="56">
+      <c r="B23" s="55">
         <v>280010019</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="56">
+      <c r="B24" s="55">
         <v>280010020</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="49" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="56">
+      <c r="B25" s="55">
         <v>280010021</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="49" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="56">
+      <c r="B26" s="55">
         <v>280010022</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="49" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="56">
+      <c r="B27" s="55">
         <v>280010023</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="49" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="56">
+      <c r="B28" s="55">
+        <v>280010024</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="55">
+        <v>280010025</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="55">
+        <v>280010026</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="55">
+        <v>280010027</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="55">
         <v>280020000</v>
       </c>
-      <c r="C28" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="56">
+      <c r="C32" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="55">
         <v>280020001</v>
       </c>
-      <c r="C29" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="56">
+      <c r="C33" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="55">
         <v>280020002</v>
       </c>
-      <c r="C30" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="56">
+      <c r="C34" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="55">
         <v>280020003</v>
       </c>
-      <c r="C31" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="56">
+      <c r="C35" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="55">
         <v>280020004</v>
       </c>
-      <c r="C32" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="56">
+      <c r="C36" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="55">
         <v>280020005</v>
       </c>
-      <c r="C33" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="56">
+      <c r="C37" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="55">
         <v>280020006</v>
       </c>
-      <c r="C34" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="56">
+      <c r="C38" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="55">
         <v>280020007</v>
       </c>
-      <c r="C35" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="56">
+      <c r="C39" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="55">
         <v>280020008</v>
       </c>
-      <c r="C36" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="56">
+      <c r="C40" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="55">
         <v>280020009</v>
       </c>
-      <c r="C37" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="56">
+      <c r="C41" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="55">
         <v>280020010</v>
       </c>
-      <c r="C38" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="56">
+      <c r="C42" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="55">
         <v>280020011</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" s="50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="56">
+      <c r="C43" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="55">
         <v>280020012</v>
       </c>
-      <c r="C40" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="56">
+      <c r="C44" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="55">
         <v>280020013</v>
       </c>
-      <c r="C41" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="50" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="56">
+      <c r="C45" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="55">
         <v>280020014</v>
       </c>
-      <c r="C42" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="56">
+      <c r="C46" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="55">
         <v>280020015</v>
       </c>
-      <c r="C43" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="56">
+      <c r="C47" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="55">
         <v>280020016</v>
       </c>
-      <c r="C44" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="56">
+      <c r="C48" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="55">
         <v>280020017</v>
       </c>
-      <c r="C45" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="56">
+      <c r="C49" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="55">
         <v>280020018</v>
       </c>
-      <c r="C46" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="56">
+      <c r="C50" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="55">
         <v>280030000</v>
       </c>
-      <c r="C47" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="56">
+      <c r="C51" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="55">
         <v>280030001</v>
       </c>
-      <c r="C48" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="D48" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="56">
+      <c r="C52" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="55">
         <v>280030002</v>
       </c>
-      <c r="C49" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="56">
+      <c r="C53" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="55">
         <v>280030003</v>
       </c>
-      <c r="C50" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="56">
+      <c r="C54" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="55">
         <v>280030004</v>
       </c>
-      <c r="C51" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="56">
+      <c r="C55" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="55">
         <v>280040000</v>
       </c>
-      <c r="C52" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="57" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="56">
+      <c r="C56" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="55">
         <v>280040001</v>
       </c>
-      <c r="C53" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="D53" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="F53" s="50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="56">
+      <c r="C57" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="55">
         <v>280040002</v>
       </c>
-      <c r="C54" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="E54" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" s="50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="56">
+      <c r="C58" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="55">
         <v>280040003</v>
       </c>
-      <c r="C55" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="D55" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="E55" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="F55" s="50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="56">
+      <c r="C59" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="55">
         <v>280040004</v>
       </c>
-      <c r="C56" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="56">
+      <c r="C60" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="55">
         <v>280040005</v>
       </c>
-      <c r="C57" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="E57" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="F57" s="50" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="56">
+      <c r="C61" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="55">
         <v>280040006</v>
       </c>
-      <c r="C58" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="D58" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="E58" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="F58" s="50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="56">
+      <c r="C62" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="55">
         <v>280040007</v>
       </c>
-      <c r="C59" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="E59" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="F59" s="50" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="56">
+      <c r="C63" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="55">
         <v>280040008</v>
       </c>
-      <c r="C60" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="F60" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="56">
+      <c r="C64" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="55">
         <v>280040009</v>
       </c>
-      <c r="C61" s="53" t="s">
-        <v>234</v>
-      </c>
-      <c r="D61" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" s="56" t="s">
-        <v>236</v>
-      </c>
-      <c r="F61" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="56">
+      <c r="C65" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="55">
         <v>280040010</v>
       </c>
-      <c r="C62" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="F62" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="56">
+      <c r="C66" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="55">
         <v>280040011</v>
       </c>
-      <c r="C63" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="F63" s="50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="56">
+      <c r="C67" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="F67" s="49" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="55">
         <v>280040012</v>
       </c>
-      <c r="C64" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="D64" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="E64" s="56" t="s">
-        <v>247</v>
-      </c>
-      <c r="F64" s="50" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="56">
+      <c r="C68" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="55">
         <v>280040013</v>
       </c>
-      <c r="C65" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D65" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="E65" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="F65" s="50" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="56">
+      <c r="C69" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="55">
         <v>280040014</v>
       </c>
-      <c r="C66" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="E66" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="F66" s="50" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="56">
+      <c r="C70" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="55">
         <v>280040015</v>
       </c>
-      <c r="C67" s="53" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="E67" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="F67" s="50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="56">
+      <c r="C71" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="F71" s="49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="55">
         <v>280040016</v>
       </c>
-      <c r="C68" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="E68" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="F68" s="50" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="56">
+      <c r="C72" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="F72" s="49" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="55">
         <v>280040017</v>
       </c>
-      <c r="C69" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="E69" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="F69" s="50" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="56">
+      <c r="C73" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="E73" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="F73" s="49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="55">
         <v>280040018</v>
       </c>
-      <c r="C70" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="E70" s="56" t="s">
-        <v>270</v>
-      </c>
-      <c r="F70" s="50" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="56">
+      <c r="C74" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="F74" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="55">
         <v>280040019</v>
       </c>
-      <c r="C71" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="D71" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="E71" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="F71" s="50" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="56">
+      <c r="C75" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="E75" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="55">
         <v>280040020</v>
       </c>
-      <c r="C72" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="D72" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="E72" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="F72" s="50" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="56">
+      <c r="C76" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="E76" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F76" s="49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="55">
         <v>280050000</v>
       </c>
-      <c r="C73" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="D73" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="E73" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="F73" s="50" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="56">
+      <c r="C77" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="D77" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="E77" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="F77" s="49" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="55">
         <v>280050001</v>
       </c>
-      <c r="C74" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="D74" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="E74" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="F74" s="50" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="56">
+      <c r="C78" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="F78" s="49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="55">
         <v>280050002</v>
       </c>
-      <c r="C75" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="D75" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="E75" s="56" t="s">
-        <v>287</v>
-      </c>
-      <c r="F75" s="50" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="56">
+      <c r="C79" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="E79" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="F79" s="49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="55">
         <v>280050003</v>
       </c>
-      <c r="C76" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="D76" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="E76" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="F76" s="50" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="56">
+      <c r="C80" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D80" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="E80" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="F80" s="49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="55">
         <v>280050004</v>
       </c>
-      <c r="C77" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="D77" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="E77" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F77" s="50" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="56">
+      <c r="C81" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="D81" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="E81" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="F81" s="49" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="55">
         <v>280050005</v>
       </c>
-      <c r="C78" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="D78" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="E78" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="F78" s="50" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="56">
+      <c r="C82" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="E82" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="F82" s="49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="55">
         <v>280050006</v>
       </c>
-      <c r="C79" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="D79" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="E79" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="F79" s="50" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="56">
+      <c r="C83" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="D83" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="E83" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" s="49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="55">
         <v>280060000</v>
       </c>
-      <c r="C80" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="D80" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="E80" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="F80" s="50" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="56">
+      <c r="C84" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="56" t="s">
+        <v>322</v>
+      </c>
+      <c r="E84" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="F84" s="49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="55">
         <v>280060001</v>
       </c>
-      <c r="C81" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="D81" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="E81" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="F81" s="50" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="56">
+      <c r="C85" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="D85" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="E85" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="F85" s="49" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="55">
         <v>280060002</v>
       </c>
-      <c r="C82" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="E82" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="F82" s="50" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="56">
+      <c r="C86" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="D86" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="E86" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="F86" s="49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="55">
         <v>280060003</v>
       </c>
-      <c r="C83" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="D83" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="E83" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="F83" s="50" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="56">
+      <c r="C87" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="D87" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="E87" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="F87" s="49" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="55">
         <v>280060004</v>
       </c>
-      <c r="C84" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="D84" s="53" t="s">
-        <v>321</v>
-      </c>
-      <c r="E84" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="F84" s="50" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="56">
+      <c r="C88" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D88" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="E88" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="F88" s="49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="55">
         <v>280060005</v>
       </c>
-      <c r="C85" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="D85" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="E85" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="F85" s="50" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="56">
+      <c r="C89" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="D89" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="E89" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="F89" s="49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="55">
         <v>280060006</v>
       </c>
-      <c r="C86" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="D86" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="E86" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="F86" s="50" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="56">
+      <c r="C90" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="D90" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="E90" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="F90" s="49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="55">
         <v>280060007</v>
       </c>
-      <c r="C87" s="53" t="s">
-        <v>332</v>
-      </c>
-      <c r="D87" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="E87" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="F87" s="50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="56">
+      <c r="C91" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="D91" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="E91" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="F91" s="49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="55">
         <v>280060008</v>
       </c>
-      <c r="C88" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="D88" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="E88" s="53" t="s">
-        <v>337</v>
-      </c>
-      <c r="F88" s="50" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="56">
+      <c r="C92" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="D92" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="E92" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="F92" s="49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="55">
         <v>280060009</v>
       </c>
-      <c r="C89" s="53" t="s">
-        <v>339</v>
-      </c>
-      <c r="D89" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="E89" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="F89" s="50" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="56">
+      <c r="C93" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="E93" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="F93" s="49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="55">
         <v>280060010</v>
       </c>
-      <c r="C90" s="53" t="s">
-        <v>342</v>
-      </c>
-      <c r="D90" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="E90" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="F90" s="50" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="56">
+      <c r="C94" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="D94" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="E94" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="F94" s="49" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="55">
         <v>280060011</v>
       </c>
-      <c r="C91" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="D91" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="E91" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="F91" s="50" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="56">
+      <c r="C95" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="D95" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="E95" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="F95" s="49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="55">
         <v>280060012</v>
       </c>
-      <c r="C92" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="D92" s="53" t="s">
-        <v>351</v>
-      </c>
-      <c r="E92" s="53" t="s">
-        <v>352</v>
-      </c>
-      <c r="F92" s="50" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" s="56">
+      <c r="C96" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D96" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="E96" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="F96" s="49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="55">
         <v>280060013</v>
       </c>
-      <c r="C93" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="D93" s="53" t="s">
-        <v>355</v>
-      </c>
-      <c r="E93" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="F93" s="50" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" s="56">
+      <c r="C97" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="D97" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="E97" s="52" t="s">
+        <v>372</v>
+      </c>
+      <c r="F97" s="49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="55">
         <v>280060014</v>
       </c>
-      <c r="C94" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="D94" s="53" t="s">
-        <v>359</v>
-      </c>
-      <c r="E94" s="53" t="s">
-        <v>360</v>
-      </c>
-      <c r="F94" s="50" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" s="56">
+      <c r="C98" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="D98" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="E98" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="F98" s="49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="55">
         <v>280060015</v>
       </c>
-      <c r="C95" s="53" t="s">
-        <v>362</v>
-      </c>
-      <c r="D95" s="53" t="s">
-        <v>363</v>
-      </c>
-      <c r="E95" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="F95" s="50" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" s="56">
+      <c r="C99" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="D99" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="E99" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="F99" s="49" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="55">
         <v>280060016</v>
       </c>
-      <c r="C96" s="53" t="s">
-        <v>366</v>
-      </c>
-      <c r="D96" s="53" t="s">
-        <v>367</v>
-      </c>
-      <c r="E96" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="F96" s="50" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="56">
+      <c r="C100" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="D100" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="E100" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="F100" s="49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="55">
         <v>280060017</v>
       </c>
-      <c r="C97" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="D97" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="E97" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="F97" s="50" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="56">
+      <c r="C101" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="D101" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="E101" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="F101" s="49" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="55">
         <v>280060018</v>
       </c>
-      <c r="C98" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="D98" s="53" t="s">
-        <v>375</v>
-      </c>
-      <c r="E98" s="53" t="s">
-        <v>376</v>
-      </c>
-      <c r="F98" s="50" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" s="56">
+      <c r="C102" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="D102" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="E102" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="F102" s="49" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="55">
         <v>280060019</v>
       </c>
-      <c r="C99" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="D99" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="E99" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="F99" s="50" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" s="56">
+      <c r="C103" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="D103" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="E103" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="F103" s="49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="55">
         <v>280060020</v>
       </c>
-      <c r="C100" s="53" t="s">
-        <v>381</v>
-      </c>
-      <c r="D100" s="53" t="s">
-        <v>382</v>
-      </c>
-      <c r="E100" s="53" t="s">
-        <v>383</v>
-      </c>
-      <c r="F100" s="50" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" s="56">
+      <c r="C104" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="D104" s="52" t="s">
+        <v>398</v>
+      </c>
+      <c r="E104" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="F104" s="49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="55">
         <v>280060021</v>
       </c>
-      <c r="C101" s="53" t="s">
-        <v>385</v>
-      </c>
-      <c r="D101" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="E101" s="53" t="s">
-        <v>387</v>
-      </c>
-      <c r="F101" s="50" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" s="56">
+      <c r="C105" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="D105" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="E105" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="F105" s="49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="55">
         <v>280060022</v>
       </c>
-      <c r="C102" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D102" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="E102" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="F102" s="50" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="103" s="53" customFormat="1">
-      <c r="B103" s="56">
+      <c r="C106" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="D106" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="E106" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="F106" s="49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="107" s="52" customFormat="1">
+      <c r="B107" s="55">
         <v>280060023</v>
       </c>
-      <c r="C103" s="53" t="s">
-        <v>393</v>
-      </c>
-      <c r="D103" s="53" t="s">
-        <v>394</v>
-      </c>
-      <c r="E103" s="53" t="s">
-        <v>395</v>
-      </c>
-      <c r="F103" s="53" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="104" ht="40.5" s="53" customFormat="1">
-      <c r="B104" s="56">
+      <c r="C107" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="D107" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="E107" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="F107" s="52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" ht="40.5" s="52" customFormat="1">
+      <c r="B108" s="55">
         <v>280060024</v>
       </c>
-      <c r="C104" s="53" t="s">
-        <v>397</v>
-      </c>
-      <c r="D104" s="59" t="s">
-        <v>398</v>
-      </c>
-      <c r="E104" s="53" t="s">
-        <v>399</v>
-      </c>
-      <c r="F104" s="53" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" s="56">
-        <v>280070000</v>
-      </c>
-      <c r="C105" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="D105" s="57" t="s">
-        <v>402</v>
-      </c>
-      <c r="E105" s="53" t="s">
-        <v>403</v>
-      </c>
-      <c r="F105" s="50" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="56">
-        <v>280070001</v>
-      </c>
-      <c r="C106" s="53" t="s">
-        <v>405</v>
-      </c>
-      <c r="D106" s="53" t="s">
-        <v>406</v>
-      </c>
-      <c r="E106" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="F106" s="50" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" s="56">
-        <v>280070002</v>
-      </c>
-      <c r="C107" s="53" t="s">
-        <v>409</v>
-      </c>
-      <c r="D107" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="E107" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="F107" s="50" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" s="56">
-        <v>280080000</v>
-      </c>
-      <c r="C108" s="53" t="s">
+      <c r="C108" s="52" t="s">
         <v>413</v>
       </c>
       <c r="D108" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="E108" s="53" t="s">
+      <c r="E108" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="F108" s="50" t="s">
+      <c r="F108" s="52" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="109">
-      <c r="B109" s="56">
+    <row r="109" s="52" customFormat="1">
+      <c r="B109" s="55">
+        <v>280060025</v>
+      </c>
+      <c r="C109" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="D109" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="E109" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="F109" s="52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="110" s="52" customFormat="1">
+      <c r="B110" s="55">
+        <v>280060026</v>
+      </c>
+      <c r="C110" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="D110" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="E110" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="F110" s="52" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="111" s="52" customFormat="1">
+      <c r="B111" s="55">
+        <v>280060027</v>
+      </c>
+      <c r="C111" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="D111" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="E111" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="F111" s="52" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="55">
+        <v>280060028</v>
+      </c>
+      <c r="C112" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="D112" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="E112" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="F112" s="49" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="55">
+        <v>280060029</v>
+      </c>
+      <c r="C113" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="D113" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="E113" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="F113" s="49" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="55">
+        <v>280060030</v>
+      </c>
+      <c r="C114" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="D114" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="E114" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="F114" s="49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="55">
+        <v>280070000</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="D115" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="E115" s="52" t="s">
+        <v>443</v>
+      </c>
+      <c r="F115" s="49" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" s="55">
+        <v>280070001</v>
+      </c>
+      <c r="C116" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="D116" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="E116" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="F116" s="49" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="55">
+        <v>280070002</v>
+      </c>
+      <c r="C117" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="D117" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="E117" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="F117" s="49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="55">
+        <v>280080000</v>
+      </c>
+      <c r="C118" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D118" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="E118" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="F118" s="49" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="55">
         <v>280080001</v>
       </c>
-      <c r="C109" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="D109" s="53" t="s">
-        <v>418</v>
-      </c>
-      <c r="E109" s="53" t="s">
-        <v>418</v>
-      </c>
-      <c r="F109" s="50" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" s="56">
+      <c r="C119" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="D119" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="E119" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="F119" s="49" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="55">
         <v>280080002</v>
       </c>
-      <c r="C110" s="53" t="s">
-        <v>420</v>
-      </c>
-      <c r="D110" s="53" t="s">
-        <v>421</v>
-      </c>
-      <c r="E110" s="53" t="s">
-        <v>422</v>
-      </c>
-      <c r="F110" s="50" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" s="56">
+      <c r="C120" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="D120" s="52" t="s">
+        <v>461</v>
+      </c>
+      <c r="E120" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="F120" s="49" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="55">
         <v>280090000</v>
       </c>
-      <c r="C111" s="53" t="s">
-        <v>424</v>
-      </c>
-      <c r="D111" s="57" t="s">
-        <v>425</v>
-      </c>
-      <c r="E111" s="53" t="s">
-        <v>426</v>
-      </c>
-      <c r="F111" s="50" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" s="56">
+      <c r="C121" s="52" t="s">
+        <v>464</v>
+      </c>
+      <c r="D121" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="E121" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="F121" s="49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="55">
         <v>280090001</v>
       </c>
-      <c r="C112" s="53" t="s">
-        <v>428</v>
-      </c>
-      <c r="D112" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="E112" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="F112" s="50" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" s="56">
+      <c r="C122" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="D122" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="E122" s="52" t="s">
+        <v>469</v>
+      </c>
+      <c r="F122" s="49" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="55">
         <v>280090002</v>
       </c>
-      <c r="C113" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="D113" s="53" t="s">
-        <v>432</v>
-      </c>
-      <c r="E113" s="53" t="s">
-        <v>433</v>
-      </c>
-      <c r="F113" s="50" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" s="56">
+      <c r="C123" s="52" t="s">
+        <v>471</v>
+      </c>
+      <c r="D123" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="E123" s="52" t="s">
+        <v>473</v>
+      </c>
+      <c r="F123" s="49" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="55">
         <v>280100000</v>
       </c>
-      <c r="C114" s="53" t="s">
-        <v>435</v>
-      </c>
-      <c r="D114" s="57" t="s">
-        <v>436</v>
-      </c>
-      <c r="E114" s="53" t="s">
-        <v>437</v>
-      </c>
-      <c r="F114" s="50" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" s="56">
+      <c r="C124" s="52" t="s">
+        <v>475</v>
+      </c>
+      <c r="D124" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="E124" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="F124" s="49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="55">
         <v>280100001</v>
       </c>
-      <c r="C115" s="53" t="s">
-        <v>439</v>
-      </c>
-      <c r="D115" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="E115" s="53" t="s">
-        <v>441</v>
-      </c>
-      <c r="F115" s="50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" s="56">
+      <c r="C125" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="D125" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="E125" s="52" t="s">
+        <v>481</v>
+      </c>
+      <c r="F125" s="49" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="55">
         <v>280100002</v>
       </c>
-      <c r="C116" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="D116" s="53" t="s">
-        <v>444</v>
-      </c>
-      <c r="E116" s="53" t="s">
-        <v>445</v>
-      </c>
-      <c r="F116" s="50" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="53" t="s">
-        <v>447</v>
+      <c r="C126" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="D126" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="E126" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="F126" s="49" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="55">
+        <v>280100003</v>
+      </c>
+      <c r="C127" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="D127" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="E127" s="52" t="s">
+        <v>489</v>
+      </c>
+      <c r="F127" s="49" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="55">
+        <v>280100004</v>
+      </c>
+      <c r="C128" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="D128" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="E128" s="52" t="s">
+        <v>493</v>
+      </c>
+      <c r="F128" s="49" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="55">
+        <v>280110000</v>
+      </c>
+      <c r="C129" s="52" t="s">
+        <v>495</v>
+      </c>
+      <c r="D129" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="E129" s="52" t="s">
+        <v>497</v>
+      </c>
+      <c r="F129" s="49" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="55">
+        <v>280110001</v>
+      </c>
+      <c r="C130" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="D130" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="E130" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="F130" s="49" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="55">
+        <v>280110002</v>
+      </c>
+      <c r="C131" s="52" t="s">
+        <v>503</v>
+      </c>
+      <c r="D131" s="52" t="s">
+        <v>504</v>
+      </c>
+      <c r="E131" s="52" t="s">
+        <v>505</v>
+      </c>
+      <c r="F131" s="49" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="55">
+        <v>280110003</v>
+      </c>
+      <c r="C132" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="D132" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="E132" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="F132" s="49" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="55">
+        <v>280120000</v>
+      </c>
+      <c r="C133" s="52" t="s">
+        <v>511</v>
+      </c>
+      <c r="D133" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="E133" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="F133" s="49" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="55">
+        <v>280120001</v>
+      </c>
+      <c r="C134" s="52" t="s">
+        <v>514</v>
+      </c>
+      <c r="D134" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="E134" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="F134" s="49" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="55">
+        <v>280120002</v>
+      </c>
+      <c r="C135" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="D135" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E135" s="52" t="s">
+        <v>520</v>
+      </c>
+      <c r="F135" s="49" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="55">
+        <v>280120000</v>
+      </c>
+      <c r="C136" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="D136" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="E136" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="F136" s="49" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="55">
+        <v>280120001</v>
+      </c>
+      <c r="C137" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="D137" s="52" t="s">
+        <v>526</v>
+      </c>
+      <c r="E137" s="52" t="s">
+        <v>527</v>
+      </c>
+      <c r="F137" s="49" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="55">
+        <v>280120002</v>
+      </c>
+      <c r="C138" s="52" t="s">
+        <v>529</v>
+      </c>
+      <c r="D138" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="E138" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="F138" s="49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="52" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C31">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C35">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:C40">
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C58">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C65">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:C77">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:C79">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80:C83">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85:C86">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:C88">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C114">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:C117">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:C120">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122:C123">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127:C128">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137:C138">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D31">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E11">
     <cfRule type="duplicateValues" dxfId="0" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E15:E31">
     <cfRule type="duplicateValues" dxfId="0" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="E34:E35">
     <cfRule type="duplicateValues" dxfId="0" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="E39:E40">
     <cfRule type="duplicateValues" dxfId="0" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  <conditionalFormatting sqref="E42:E51">
     <cfRule type="duplicateValues" dxfId="0" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C1:C5 C125:C126 C134:C135 C139:C1048576 C130:C132">
+    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C50 C52:C55">
     <cfRule type="duplicateValues" dxfId="0" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C11">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C27">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
-    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35:C36">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55:C61">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62:C73">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74:C75">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76:C79">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83:C84">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85:C104">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105:C107">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109:C110">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:C113">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D27">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E11">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E27">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E36">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E47">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C5 C115:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C46 C48:C51">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
